--- a/docs/PTA2_DDC_100/PTA2_DDC_100_03.09.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731783945.2269833</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731783950.7862751</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731783945.2269833.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731783950.7862751.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>246.53</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>246.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731783951.6994433</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731783951.6994433.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731783951.6994433.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>246.04</v>
       </c>
-      <c r="J4" t="n">
-        <v>246.04</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>246.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731783953.113923</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731783957.6884391</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783953.113923.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783957.6884391.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>246.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>246.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731783958.4621162</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731783959.5899796</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783958.4621162.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783959.5899796.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>246.04</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>244.27</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.769999999999982</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731783960.3350832</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731783969.0759723</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783960.3350832.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783969.0759723.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>246.77</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>248.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.429999999999978</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -791,95 +837,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731783970.2748845</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731783970.2748845.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731783970.2748845.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>247.16</v>
       </c>
-      <c r="J8" t="n">
-        <v>247.16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>247.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731783973.6210494</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731783975.1155436</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783973.6210494.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783975.1155436.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>125.03</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>124.47</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -887,95 +945,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731783976.958601</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731783976.958601.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731783976.958601.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>123.95</v>
       </c>
-      <c r="J10" t="n">
-        <v>123.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>123.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731783979.4465375</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731783983.2383907</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783979.4465375.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783983.2383907.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6188.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6190</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -983,95 +1053,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731783985.6069305</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731783985.6069305.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731783985.6069305.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6175.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>6175.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6179</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731783988.5420682</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731783993.4131918</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783988.5420682.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783993.4131918.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>465.9</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>467.7</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.800000000000011</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1079,51 +1161,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731783993.8329823</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731783994.274255</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783993.8329823.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783994.274255.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>465</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>468.25</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3.25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731783998.0612113</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731784001.2613482</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731783998.0612113.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784001.2613482.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>195.08</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>194.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6300000000000239</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1183,51 +1277,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731784001.5812764</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731784001.87045</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784001.5812764.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784001.87045.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>193.19</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>194.45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.259999999999991</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1235,95 +1335,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731784002.6193192</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731784002.6193192.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731784002.6193192.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>192.73</v>
       </c>
-      <c r="J17" t="n">
-        <v>192.73</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>192.31</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731784007.3381708</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731784010.8367848</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784007.3381708.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784010.8367848.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>970</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>968</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1331,95 +1443,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731784011.859953</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731784011.859953.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731784011.859953.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>962.4</v>
       </c>
-      <c r="J19" t="n">
-        <v>962.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>963</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731784013.3557272</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731784015.2474194</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784013.3557272.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784015.2474194.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.995</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11.965</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.02999999999999936</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1427,95 +1551,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731784017.3482955</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731784017.3482955.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731784017.3482955.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>12.01</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>12.071</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.06099999999999994</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731784021.8995202</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731784028.5139146</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784021.8995202.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784028.5139146.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>104.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>106.44</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2.039999999999992</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-1.95</v>
       </c>
     </row>
@@ -1523,95 +1659,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731784029.262726</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731784029.262726.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731784029.262726.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>105.48</v>
       </c>
-      <c r="J23" t="n">
-        <v>105.48</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>105.66</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1799999999999926</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731784030.8070078</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731784035.5500674</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784030.8070078.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784035.5500674.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>128.84</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.02</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.180000000000007</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -1619,95 +1767,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731784036.6346629</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731784036.6346629.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731784036.6346629.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>129.16</v>
       </c>
-      <c r="J25" t="n">
-        <v>129.16</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>127.76</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.399999999999991</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731784039.02434</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731784043.6456118</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784039.02434.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784043.6456118.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>41.34</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>41.45</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1715,95 +1875,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731784045.1488307</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731784045.1488307.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731784045.1488307.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>41.155</v>
       </c>
-      <c r="J27" t="n">
-        <v>41.155</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.3950000000000031</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731784049.1066165</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731784053.1640732</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784049.1066165.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784053.1640732.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1185.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1197.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-11.40000000000009</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.96</v>
       </c>
     </row>
@@ -1811,95 +1983,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731784054.0215695</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731784054.0215695.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731784054.0215695.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J29" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1165.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-25.19999999999982</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731784056.275952</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731784062.375477</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784056.275952.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784062.375477.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>47.43</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>48.36</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.9299999999999997</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-1.96</v>
       </c>
     </row>
@@ -1907,95 +2091,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731784063.364161</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731784063.364161.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731784063.364161.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>47.92</v>
       </c>
-      <c r="J31" t="n">
-        <v>47.92</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>47.94</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731784065.048351</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731784068.244368</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784065.048351.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784068.244368.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>87.58</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>87.08</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2003,51 +2199,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731784069.353916</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731784071.4357817</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784069.353916.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784071.4357817.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>87.81</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2055,95 +2257,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731784072.4103513</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731784072.4103513.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731784072.4103513.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>87.12</v>
       </c>
-      <c r="J34" t="n">
-        <v>87.12</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731784073.8860908</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731784076.4146004</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784073.8860908.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784076.4146004.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>47.55</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>47.26</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -2151,95 +2365,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731784079.017262</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731784079.017262.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731784079.017262.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>47.26</v>
       </c>
-      <c r="J36" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>46.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731784082.019197</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731784085.504502</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784082.019197.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784085.504502.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>139.3</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>139.3</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2247,51 +2473,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731784085.8037279</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731784087.187321</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784085.8037279.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784087.187321.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>138.76</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>139</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2299,51 +2531,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731784087.4186294</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731784088.410978</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731784087.4186294.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731784088.410978.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.2711</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.2768</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.005699999999999983</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -2351,95 +2589,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731784102.2082996</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731784102.2082996.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731784102.2082996.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>15.182</v>
       </c>
-      <c r="J40" t="n">
-        <v>15.182</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.06900000000000084</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731784104.5783062</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731784108.0141196</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784104.5783062.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784108.0141196.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>649.75</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>650.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.049999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2447,51 +2697,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731784109.8590696</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731784110.1106262</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784109.8590696.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784110.1106262.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>648.4</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>651.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.899999999999977</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2499,95 +2755,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731784110.6833682</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731784110.6833682.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731784110.6833682.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>646.75</v>
       </c>
-      <c r="J43" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>646.65</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731784112.4953513</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731784114.1026025</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784112.4953513.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784114.1026025.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>114.91</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>113.62</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.289999999999992</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -2595,44 +2863,50 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731784118.8077397</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731784118.8077397.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731784118.8077397.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>112.81</v>
       </c>
-      <c r="J45" t="n">
-        <v>112.81</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>112.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.210000000000008</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -2693,19 +2967,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.569999999999965</v>
+        <v>-3.689999999999969</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8924999999999912</v>
+        <v>-0.9224999999999923</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.45</v>
+        <v>-1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="3">
@@ -2715,19 +2989,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9500000000000028</v>
+        <v>1.120000000000005</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3166666666666676</v>
+        <v>0.3733333333333348</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="F3" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -2737,19 +3011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.890000000000015</v>
+        <v>1.470000000000027</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6300000000000049</v>
+        <v>0.4900000000000091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9700000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -2759,19 +3033,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.850000000000023</v>
+        <v>1.75</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6166666666666742</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -2781,19 +3055,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.01000000000000512</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2803,19 +3077,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.039999999999992</v>
+        <v>-1.859999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.019999999999996</v>
+        <v>-0.9299999999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.95</v>
+        <v>-1.78</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.98</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="8">
@@ -2825,19 +3099,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -2847,19 +3121,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1099999999999994</v>
+        <v>-0.5050000000000026</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05499999999999972</v>
+        <v>-0.2525000000000013</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.27</v>
+        <v>-1.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.14</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="10">
@@ -2869,19 +3143,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02999999999999936</v>
+        <v>-0.03100000000000058</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01499999999999968</v>
+        <v>-0.01550000000000029</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="11">
@@ -2913,19 +3187,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-0.9100000000000037</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4649999999999999</v>
+        <v>-0.4550000000000018</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.96</v>
+        <v>-1.92</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.98</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="13">
@@ -2935,19 +3209,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.180000000000007</v>
+        <v>-2.579999999999998</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5900000000000034</v>
+        <v>-1.289999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9199999999999999</v>
+        <v>-2</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -2957,19 +3231,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>2.600000000000023</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15">
@@ -3001,19 +3275,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.40000000000009</v>
+        <v>-36.59999999999991</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.700000000000045</v>
+        <v>-18.29999999999995</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.96</v>
+        <v>-3.08</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.48</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="17">
@@ -3023,19 +3297,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3700000000000045</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1850000000000023</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
@@ -3045,19 +3319,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2899999999999991</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1449999999999996</v>
+        <v>-0.08500000000000085</v>
       </c>
       <c r="E18" t="n">
-        <v>0.61</v>
+        <v>-0.36</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="19">
@@ -3067,19 +3341,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.289999999999992</v>
+        <v>1.079999999999984</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.644999999999996</v>
+        <v>0.539999999999992</v>
       </c>
       <c r="E19" t="n">
-        <v>1.12</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20">
@@ -3089,19 +3363,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.06900000000000084</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.06900000000000084</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="21">
